--- a/uploads/sample_master_po_with_xfd_sorted.xlsx
+++ b/uploads/sample_master_po_with_xfd_sorted.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaeph\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514F6903-F7E9-4938-8C74-5EDDF9123816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master PO" sheetId="1" r:id="rId1"/>
     <sheet name="Mold Inventory" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -443,11 +449,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,13 +517,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -555,7 +569,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -589,6 +603,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -623,9 +638,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -798,14 +814,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -891,7 +907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>45691</v>
       </c>
@@ -974,7 +990,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>45719</v>
       </c>
@@ -1057,7 +1073,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>45756</v>
       </c>
@@ -1140,7 +1156,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>45722</v>
       </c>
@@ -1223,7 +1239,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>45705</v>
       </c>
@@ -1306,7 +1322,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>45734</v>
       </c>
@@ -1389,7 +1405,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>45735</v>
       </c>
@@ -1472,7 +1488,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>45664</v>
       </c>
@@ -1555,7 +1571,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>45737</v>
       </c>
@@ -1638,7 +1654,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>45693</v>
       </c>
@@ -1721,7 +1737,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>45721</v>
       </c>
@@ -1804,7 +1820,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>45728</v>
       </c>
@@ -1887,7 +1903,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>45663</v>
       </c>
@@ -1970,7 +1986,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>45700</v>
       </c>
@@ -2053,7 +2069,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>45690</v>
       </c>
@@ -2136,7 +2152,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>45748</v>
       </c>
@@ -2219,7 +2235,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>45658</v>
       </c>
@@ -2302,7 +2318,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>45755</v>
       </c>
@@ -2385,7 +2401,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>45742</v>
       </c>
@@ -2468,7 +2484,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>45697</v>
       </c>
@@ -2551,7 +2567,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>45694</v>
       </c>
@@ -2634,7 +2650,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>45738</v>
       </c>
@@ -2717,7 +2733,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>45713</v>
       </c>
@@ -2800,7 +2816,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>45660</v>
       </c>
@@ -2883,7 +2899,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>45686</v>
       </c>
@@ -2966,7 +2982,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>45749</v>
       </c>
@@ -3049,7 +3065,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>45701</v>
       </c>
@@ -3132,7 +3148,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>45685</v>
       </c>
@@ -3215,7 +3231,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>45750</v>
       </c>
@@ -3298,7 +3314,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>45712</v>
       </c>
@@ -3381,7 +3397,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>45744</v>
       </c>
@@ -3464,7 +3480,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>45702</v>
       </c>
@@ -3547,7 +3563,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>45733</v>
       </c>
@@ -3630,7 +3646,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>45680</v>
       </c>
@@ -3713,7 +3729,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>45670</v>
       </c>
@@ -3796,7 +3812,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>45709</v>
       </c>
@@ -3879,7 +3895,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>45666</v>
       </c>
@@ -3962,7 +3978,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>45751</v>
       </c>
@@ -4045,7 +4061,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>45715</v>
       </c>
@@ -4128,7 +4144,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>45752</v>
       </c>
@@ -4211,7 +4227,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>45708</v>
       </c>
@@ -4294,7 +4310,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <v>45675</v>
       </c>
@@ -4377,7 +4393,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>45683</v>
       </c>
@@ -4460,7 +4476,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>45731</v>
       </c>
@@ -4543,7 +4559,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>45662</v>
       </c>
@@ -4626,7 +4642,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>45668</v>
       </c>
@@ -4709,7 +4725,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <v>45707</v>
       </c>
@@ -4792,7 +4808,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <v>45729</v>
       </c>
@@ -4875,7 +4891,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>45704</v>
       </c>
@@ -4958,7 +4974,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>45688</v>
       </c>
@@ -5041,7 +5057,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>45676</v>
       </c>
@@ -5124,7 +5140,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
         <v>45687</v>
       </c>
@@ -5207,7 +5223,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
         <v>45745</v>
       </c>
@@ -5290,7 +5306,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
         <v>45689</v>
       </c>
@@ -5373,7 +5389,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>45711</v>
       </c>
@@ -5456,7 +5472,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>45667</v>
       </c>
@@ -5539,7 +5555,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A58" s="2">
         <v>45743</v>
       </c>
@@ -5622,7 +5638,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
         <v>45724</v>
       </c>
@@ -5705,7 +5721,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A60" s="2">
         <v>45723</v>
       </c>
@@ -5788,7 +5804,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A61" s="2">
         <v>45753</v>
       </c>
@@ -5871,7 +5887,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A62" s="2">
         <v>45740</v>
       </c>
@@ -5954,7 +5970,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A63" s="2">
         <v>45696</v>
       </c>
@@ -6037,7 +6053,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A64" s="2">
         <v>45703</v>
       </c>
@@ -6120,7 +6136,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A65" s="2">
         <v>45726</v>
       </c>
@@ -6203,7 +6219,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A66" s="2">
         <v>45736</v>
       </c>
@@ -6286,7 +6302,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
         <v>45698</v>
       </c>
@@ -6369,7 +6385,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A68" s="2">
         <v>45674</v>
       </c>
@@ -6452,7 +6468,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A69" s="2">
         <v>45669</v>
       </c>
@@ -6535,7 +6551,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A70" s="2">
         <v>45754</v>
       </c>
@@ -6618,7 +6634,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A71" s="2">
         <v>45677</v>
       </c>
@@ -6701,7 +6717,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:28">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A72" s="2">
         <v>45747</v>
       </c>
@@ -6784,7 +6800,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A73" s="2">
         <v>45732</v>
       </c>
@@ -6867,7 +6883,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A74" s="2">
         <v>45716</v>
       </c>
@@ -6950,7 +6966,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A75" s="2">
         <v>45673</v>
       </c>
@@ -7033,7 +7049,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A76" s="2">
         <v>45692</v>
       </c>
@@ -7116,7 +7132,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A77" s="2">
         <v>45720</v>
       </c>
@@ -7199,7 +7215,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A78" s="2">
         <v>45730</v>
       </c>
@@ -7282,7 +7298,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A79" s="2">
         <v>45710</v>
       </c>
@@ -7365,7 +7381,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A80" s="2">
         <v>45679</v>
       </c>
@@ -7448,7 +7464,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:28">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A81" s="2">
         <v>45671</v>
       </c>
@@ -7531,7 +7547,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="1:28">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A82" s="2">
         <v>45746</v>
       </c>
@@ -7614,7 +7630,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="83" spans="1:28">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A83" s="2">
         <v>45665</v>
       </c>
@@ -7697,7 +7713,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="84" spans="1:28">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A84" s="2">
         <v>45717</v>
       </c>
@@ -7780,7 +7796,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="1:28">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A85" s="2">
         <v>45659</v>
       </c>
@@ -7863,7 +7879,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="86" spans="1:28">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A86" s="2">
         <v>45718</v>
       </c>
@@ -7946,7 +7962,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:28">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A87" s="2">
         <v>45672</v>
       </c>
@@ -8029,7 +8045,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="1:28">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A88" s="2">
         <v>45684</v>
       </c>
@@ -8112,7 +8128,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="89" spans="1:28">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A89" s="2">
         <v>45682</v>
       </c>
@@ -8195,7 +8211,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="90" spans="1:28">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A90" s="2">
         <v>45727</v>
       </c>
@@ -8278,7 +8294,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="91" spans="1:28">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A91" s="2">
         <v>45661</v>
       </c>
@@ -8361,7 +8377,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="92" spans="1:28">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A92" s="2">
         <v>45681</v>
       </c>
@@ -8444,7 +8460,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="93" spans="1:28">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A93" s="2">
         <v>45741</v>
       </c>
@@ -8527,7 +8543,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="94" spans="1:28">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A94" s="2">
         <v>45678</v>
       </c>
@@ -8610,7 +8626,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:28">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A95" s="2">
         <v>45706</v>
       </c>
@@ -8693,7 +8709,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="96" spans="1:28">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A96" s="2">
         <v>45695</v>
       </c>
@@ -8776,7 +8792,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="97" spans="1:28">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A97" s="2">
         <v>45725</v>
       </c>
@@ -8859,7 +8875,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="98" spans="1:28">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A98" s="2">
         <v>45739</v>
       </c>
@@ -8942,7 +8958,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:28">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A99" s="2">
         <v>45714</v>
       </c>
@@ -9025,7 +9041,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="100" spans="1:28">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A100" s="2">
         <v>45699</v>
       </c>
@@ -9108,7 +9124,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="101" spans="1:28">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A101" s="2">
         <v>45757</v>
       </c>
@@ -9197,14 +9213,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" s="1">
         <v>4</v>
       </c>
@@ -9263,7 +9281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
@@ -9320,6 +9338,65 @@
       </c>
       <c r="S2">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
